--- a/项目校对表.xlsx
+++ b/项目校对表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liufan/program/PYTHON/SAP/PrivateInformationScanning/partOne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liufan/program/PYTHON/SAP/PrivacyScan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FEB9D-F804-FE4C-A3D2-573BA57AA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D62DD8E-D78A-8E45-9F83-346F9AECD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,9 +725,6 @@
     <t>用户信息模糊查询</t>
   </si>
   <si>
-    <t>cmdb.utils.kafka.consumer.py/21</t>
-  </si>
-  <si>
     <t>Tracking/Device/Cookies</t>
   </si>
   <si>
@@ -737,39 +734,21 @@
     <t>用户使用过的Url</t>
   </si>
   <si>
-    <t>cmdb.utils.DeviceInfo.py/12</t>
-  </si>
-  <si>
     <t>后端通过request获得请求的cookies 传回前端</t>
   </si>
   <si>
-    <t>cmdb.utils.DeviceInfo.py/26</t>
-  </si>
-  <si>
     <t>后端通过request获得请求的ipaddress 传回前端</t>
   </si>
   <si>
-    <t>cmdb.utils.DeviceInfo.py/28</t>
-  </si>
-  <si>
-    <t>cmdb.utils.DeviceInfo.py/46</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tracking/Device/MacAddress</t>
   </si>
   <si>
     <t>后端通过发送arp报文通过ipAddress 获得mac地址传回前端</t>
   </si>
   <si>
-    <t>cmdb.utils.share.py/7</t>
-  </si>
-  <si>
     <t>通过url生成QRcode</t>
   </si>
   <si>
-    <t>cmdb.utils.sendEmail.py/34</t>
-  </si>
-  <si>
     <t>any</t>
   </si>
   <si>
@@ -779,58 +758,31 @@
     <t>数据发送Email</t>
   </si>
   <si>
-    <t>cmdb.utils.nats.pynats/81</t>
-  </si>
-  <si>
     <t>从options中获取用户名并存储到config中</t>
   </si>
   <si>
-    <t>cmdb.utils.nats.pynats/82</t>
-  </si>
-  <si>
     <t>从options中获取密码并存储到config中</t>
   </si>
   <si>
-    <t>cmdb.utils.UserSession.py/8</t>
-  </si>
-  <si>
     <t>调用了cmdb.views.dao.userInfoDao.getAllFromUserInfoByUserID.检查用户会话状态，需要获取全部用户信息并返回</t>
   </si>
   <si>
-    <t>cmdb.sdk_api.saltstack.py/21</t>
-  </si>
-  <si>
     <t>Store or Usage</t>
   </si>
   <si>
     <t>初始SaltAPI对象时记录用户名，后续用途未知</t>
   </si>
   <si>
-    <t>cmdb.sdk_api.saltstack.py/22</t>
-  </si>
-  <si>
     <t>初始SaltAPI对象时记录密码，后续用途未知</t>
   </si>
   <si>
-    <t>cmdb.sdk_api.saltstack.py/26</t>
-  </si>
-  <si>
     <t>获取请求成功参数token值，将用户名打包返回</t>
   </si>
   <si>
     <t>获取请求成功参数token值，将密码打包返回</t>
   </si>
   <si>
-    <t>cmdb.sdk_api.ZabbixApi.py/99</t>
-  </si>
-  <si>
     <t>登陆时构建ZabbixAPI对象，需要外部传入的用户名</t>
-  </si>
-  <si>
-    <t>cmdb.sdk_api.ZabbixApi.py/100</t>
-  </si>
-  <si>
-    <t>cmdb.sdk_api.ZabbixApi.py/130</t>
   </si>
   <si>
     <t>登陆需要用户名和密码</t>
@@ -2536,6 +2488,70 @@
   </si>
   <si>
     <t>Usage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.kafka.consumer.py/21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.DeviceInfo.py/12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.DeviceInfo.py/26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.DeviceInfo.py/28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.DeviceInfo.py/46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.share.py/7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.sendEmail.py/34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.nats.pynats/81</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.nats.pynats/82</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>utils.UserSession.py/8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk_api.saltstack.py/21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk_api.saltstack.py/22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk_api.saltstack.py/26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk_api.ZabbixApi.py/99</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk_api.ZabbixApi.py/100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk_api.ZabbixApi.py/130</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2921,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
@@ -2969,7 +2985,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -2983,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -2997,7 +3013,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -3011,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -3025,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -3039,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -3053,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -3067,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -3081,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -3095,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -3109,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -3123,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
@@ -3137,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -3151,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -3165,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -3179,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -3193,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
@@ -3207,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
@@ -3221,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -3235,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -3249,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -3263,7 +3279,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
@@ -3277,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
@@ -3291,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -3305,7 +3321,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
@@ -3319,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
@@ -3333,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>10</v>
@@ -3347,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>10</v>
@@ -3361,7 +3377,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>10</v>
@@ -3375,7 +3391,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
@@ -3389,7 +3405,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
@@ -3403,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>10</v>
@@ -3417,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>10</v>
@@ -3431,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
@@ -3445,7 +3461,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>10</v>
@@ -3459,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>10</v>
@@ -3473,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
@@ -3487,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>10</v>
@@ -3501,7 +3517,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>10</v>
@@ -3515,7 +3531,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>27</v>
@@ -3529,7 +3545,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>27</v>
@@ -3543,7 +3559,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>27</v>
@@ -3557,7 +3573,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>33</v>
@@ -3613,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>10</v>
@@ -3627,7 +3643,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>10</v>
@@ -3641,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>10</v>
@@ -3655,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>10</v>
@@ -3669,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>10</v>
@@ -3683,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>10</v>
@@ -3697,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -3711,7 +3727,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>27</v>
@@ -3725,7 +3741,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>27</v>
@@ -3781,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>10</v>
@@ -3795,7 +3811,7 @@
         <v>11</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>10</v>
@@ -3809,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
@@ -3823,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>27</v>
@@ -3837,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>10</v>
@@ -3851,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>10</v>
@@ -3865,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>10</v>
@@ -3879,7 +3895,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>48</v>
@@ -3893,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>10</v>
@@ -3907,7 +3923,7 @@
         <v>11</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>10</v>
@@ -3921,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>10</v>
@@ -3935,7 +3951,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>27</v>
@@ -3949,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>10</v>
@@ -3963,7 +3979,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>10</v>
@@ -3977,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
@@ -3991,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>10</v>
@@ -4005,7 +4021,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>10</v>
@@ -4019,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>10</v>
@@ -4033,7 +4049,7 @@
         <v>54</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>55</v>
@@ -4047,7 +4063,7 @@
         <v>54</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>57</v>
@@ -4061,7 +4077,7 @@
         <v>54</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>59</v>
@@ -4075,7 +4091,7 @@
         <v>54</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>61</v>
@@ -4089,7 +4105,7 @@
         <v>54</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>63</v>
@@ -4103,7 +4119,7 @@
         <v>54</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>65</v>
@@ -4117,7 +4133,7 @@
         <v>54</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>55</v>
@@ -4131,7 +4147,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>68</v>
@@ -4145,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>10</v>
@@ -4159,7 +4175,7 @@
         <v>11</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>10</v>
@@ -4173,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>10</v>
@@ -4187,7 +4203,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>10</v>
@@ -4201,7 +4217,7 @@
         <v>11</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>10</v>
@@ -4215,7 +4231,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>10</v>
@@ -4229,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>10</v>
@@ -4243,7 +4259,7 @@
         <v>11</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>10</v>
@@ -4257,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>10</v>
@@ -4271,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>10</v>
@@ -4285,7 +4301,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>10</v>
@@ -4299,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>10</v>
@@ -4313,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>10</v>
@@ -4327,7 +4343,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>10</v>
@@ -4341,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>10</v>
@@ -4355,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>10</v>
@@ -4369,7 +4385,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>10</v>
@@ -4383,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>10</v>
@@ -4397,7 +4413,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>10</v>
@@ -4411,7 +4427,7 @@
         <v>11</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>10</v>
@@ -4425,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>10</v>
@@ -4439,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>10</v>
@@ -4453,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>10</v>
@@ -4467,7 +4483,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>10</v>
@@ -4481,7 +4497,7 @@
         <v>9</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>10</v>
@@ -4495,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>10</v>
@@ -4509,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>10</v>
@@ -4523,7 +4539,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>10</v>
@@ -4537,7 +4553,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>10</v>
@@ -4551,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>10</v>
@@ -4565,7 +4581,7 @@
         <v>9</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>10</v>
@@ -4579,7 +4595,7 @@
         <v>11</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>10</v>
@@ -4593,7 +4609,7 @@
         <v>12</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>10</v>
@@ -4607,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>10</v>
@@ -4621,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>10</v>
@@ -4635,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>10</v>
@@ -4649,7 +4665,7 @@
         <v>9</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>10</v>
@@ -4663,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>10</v>
@@ -4677,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>10</v>
@@ -4691,7 +4707,7 @@
         <v>9</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>10</v>
@@ -4705,7 +4721,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>10</v>
@@ -4719,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>10</v>
@@ -4733,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>10</v>
@@ -4747,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>10</v>
@@ -4761,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>10</v>
@@ -4775,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>10</v>
@@ -4789,7 +4805,7 @@
         <v>11</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>10</v>
@@ -4803,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>10</v>
@@ -4817,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>10</v>
@@ -4831,7 +4847,7 @@
         <v>11</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>10</v>
@@ -4845,7 +4861,7 @@
         <v>12</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>10</v>
@@ -4859,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>10</v>
@@ -4873,7 +4889,7 @@
         <v>11</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>10</v>
@@ -4887,7 +4903,7 @@
         <v>12</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>10</v>
@@ -4901,7 +4917,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>10</v>
@@ -4915,7 +4931,7 @@
         <v>11</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>10</v>
@@ -4929,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>10</v>
@@ -4943,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>10</v>
@@ -4957,7 +4973,7 @@
         <v>11</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>10</v>
@@ -4971,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>10</v>
@@ -4985,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>10</v>
@@ -4999,7 +5015,7 @@
         <v>11</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>10</v>
@@ -5013,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>10</v>
@@ -5027,7 +5043,7 @@
         <v>9</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>10</v>
@@ -5041,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>10</v>
@@ -5055,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>10</v>
@@ -5069,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>10</v>
@@ -5083,7 +5099,7 @@
         <v>11</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>10</v>
@@ -5097,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>10</v>
@@ -5111,7 +5127,7 @@
         <v>9</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>10</v>
@@ -5125,7 +5141,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>10</v>
@@ -5139,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>10</v>
@@ -5153,7 +5169,7 @@
         <v>9</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>10</v>
@@ -5167,7 +5183,7 @@
         <v>11</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>10</v>
@@ -5181,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>10</v>
@@ -5195,7 +5211,7 @@
         <v>9</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>10</v>
@@ -5209,7 +5225,7 @@
         <v>11</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>10</v>
@@ -5223,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>10</v>
@@ -5237,7 +5253,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>10</v>
@@ -5251,7 +5267,7 @@
         <v>11</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>10</v>
@@ -5265,7 +5281,7 @@
         <v>12</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>10</v>
@@ -5279,7 +5295,7 @@
         <v>9</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>10</v>
@@ -5293,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>10</v>
@@ -5307,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>10</v>
@@ -5321,7 +5337,7 @@
         <v>9</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>10</v>
@@ -5335,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>10</v>
@@ -5349,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>10</v>
@@ -5363,7 +5379,7 @@
         <v>9</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>10</v>
@@ -5377,7 +5393,7 @@
         <v>11</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>10</v>
@@ -5391,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>10</v>
@@ -5405,7 +5421,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>10</v>
@@ -5419,7 +5435,7 @@
         <v>11</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>10</v>
@@ -5433,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>10</v>
@@ -5447,7 +5463,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>10</v>
@@ -5461,7 +5477,7 @@
         <v>11</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>10</v>
@@ -5475,7 +5491,7 @@
         <v>12</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>10</v>
@@ -5489,7 +5505,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>10</v>
@@ -5503,7 +5519,7 @@
         <v>11</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>10</v>
@@ -5517,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>10</v>
@@ -5531,7 +5547,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>10</v>
@@ -5545,7 +5561,7 @@
         <v>11</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>10</v>
@@ -5559,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>10</v>
@@ -5573,7 +5589,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>10</v>
@@ -5587,7 +5603,7 @@
         <v>11</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>10</v>
@@ -5601,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>10</v>
@@ -5615,7 +5631,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>10</v>
@@ -5629,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>10</v>
@@ -5643,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>10</v>
@@ -5657,7 +5673,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>10</v>
@@ -5671,7 +5687,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>10</v>
@@ -5685,7 +5701,7 @@
         <v>12</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>10</v>
@@ -5699,7 +5715,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>10</v>
@@ -5713,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>10</v>
@@ -5727,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>10</v>
@@ -5741,7 +5757,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>10</v>
@@ -5755,7 +5771,7 @@
         <v>11</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>10</v>
@@ -5769,7 +5785,7 @@
         <v>12</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>10</v>
@@ -5783,7 +5799,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>10</v>
@@ -5797,7 +5813,7 @@
         <v>11</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>10</v>
@@ -5811,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>10</v>
@@ -5825,7 +5841,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>10</v>
@@ -5839,7 +5855,7 @@
         <v>11</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>10</v>
@@ -5853,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>10</v>
@@ -5867,7 +5883,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>10</v>
@@ -5881,7 +5897,7 @@
         <v>11</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>10</v>
@@ -5895,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>10</v>
@@ -5909,7 +5925,7 @@
         <v>9</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>10</v>
@@ -5923,7 +5939,7 @@
         <v>11</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>10</v>
@@ -5937,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>10</v>
@@ -5951,7 +5967,7 @@
         <v>9</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>10</v>
@@ -5965,7 +5981,7 @@
         <v>11</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>10</v>
@@ -5979,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>10</v>
@@ -5993,7 +6009,7 @@
         <v>9</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>10</v>
@@ -6007,7 +6023,7 @@
         <v>11</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>10</v>
@@ -6021,7 +6037,7 @@
         <v>12</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>10</v>
@@ -6035,7 +6051,7 @@
         <v>9</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>10</v>
@@ -6049,7 +6065,7 @@
         <v>11</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>10</v>
@@ -6063,7 +6079,7 @@
         <v>12</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>10</v>
@@ -6077,7 +6093,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>10</v>
@@ -6091,7 +6107,7 @@
         <v>11</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>10</v>
@@ -6105,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>10</v>
@@ -6119,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>10</v>
@@ -6133,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>10</v>
@@ -6147,7 +6163,7 @@
         <v>12</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>10</v>
@@ -6161,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>10</v>
@@ -6175,7 +6191,7 @@
         <v>11</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>10</v>
@@ -6189,7 +6205,7 @@
         <v>12</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>10</v>
@@ -6203,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>10</v>
@@ -6217,7 +6233,7 @@
         <v>11</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>10</v>
@@ -6231,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>10</v>
@@ -6245,7 +6261,7 @@
         <v>9</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>10</v>
@@ -6259,7 +6275,7 @@
         <v>11</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>10</v>
@@ -6273,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>10</v>
@@ -6287,7 +6303,7 @@
         <v>9</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>10</v>
@@ -6301,7 +6317,7 @@
         <v>11</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>10</v>
@@ -6315,7 +6331,7 @@
         <v>12</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>10</v>
@@ -6329,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>10</v>
@@ -6343,7 +6359,7 @@
         <v>11</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>10</v>
@@ -6357,7 +6373,7 @@
         <v>12</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>10</v>
@@ -6371,7 +6387,7 @@
         <v>9</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>10</v>
@@ -6385,7 +6401,7 @@
         <v>11</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>10</v>
@@ -6399,7 +6415,7 @@
         <v>12</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>10</v>
@@ -7175,35 +7191,35 @@
     </row>
     <row r="305" spans="1:4" ht="15">
       <c r="A305" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B305" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="C305" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C305" s="5" t="s">
+      <c r="D305" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5" t="s">
-        <v>238</v>
+        <v>823</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15">
       <c r="A307" s="5" t="s">
-        <v>240</v>
+        <v>824</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>54</v>
@@ -7212,12 +7228,12 @@
         <v>124</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5" t="s">
-        <v>242</v>
+        <v>825</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>54</v>
@@ -7226,54 +7242,54 @@
         <v>124</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5" t="s">
-        <v>243</v>
+        <v>826</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5" t="s">
-        <v>246</v>
+        <v>827</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15">
       <c r="A311" s="5" t="s">
-        <v>248</v>
+        <v>828</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15">
       <c r="A312" s="4" t="s">
-        <v>252</v>
+        <v>829</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>9</v>
@@ -7282,12 +7298,12 @@
         <v>124</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5" t="s">
-        <v>254</v>
+        <v>830</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>31</v>
@@ -7296,12 +7312,12 @@
         <v>124</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15">
       <c r="A314" s="5" t="s">
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>9</v>
@@ -7310,12 +7326,12 @@
         <v>124</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15">
       <c r="A315" s="5" t="s">
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>31</v>
@@ -7324,12 +7340,12 @@
         <v>124</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15">
       <c r="A316" s="5" t="s">
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>184</v>
@@ -7338,12 +7354,12 @@
         <v>124</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15">
       <c r="A317" s="5" t="s">
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>12</v>
@@ -7352,7 +7368,7 @@
         <v>124</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15">
@@ -7363,63 +7379,63 @@
     </row>
     <row r="319" spans="1:4" ht="15">
       <c r="A319" s="4" t="s">
-        <v>258</v>
+        <v>832</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15">
       <c r="A320" s="4" t="s">
-        <v>261</v>
+        <v>833</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="15">
       <c r="A321" s="4" t="s">
-        <v>263</v>
+        <v>834</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15">
       <c r="A322" s="4" t="s">
-        <v>263</v>
+        <v>834</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="15" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>266</v>
+        <v>835</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>9</v>
@@ -7428,7 +7444,7 @@
         <v>124</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
@@ -7440,7 +7456,7 @@
     </row>
     <row r="324" spans="1:11" ht="15" customHeight="1">
       <c r="A324" s="4" t="s">
-        <v>268</v>
+        <v>836</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>31</v>
@@ -7449,7 +7465,7 @@
         <v>124</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
@@ -7461,7 +7477,7 @@
     </row>
     <row r="325" spans="1:11" ht="15" customHeight="1">
       <c r="A325" s="4" t="s">
-        <v>269</v>
+        <v>837</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>9</v>
@@ -7470,7 +7486,7 @@
         <v>124</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
@@ -7482,7 +7498,7 @@
     </row>
     <row r="326" spans="1:11" ht="15" customHeight="1">
       <c r="A326" s="4" t="s">
-        <v>269</v>
+        <v>837</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>31</v>
@@ -7491,7 +7507,7 @@
         <v>124</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
@@ -7578,4710 +7594,4710 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B81" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D82" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D95" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D96" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B107" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B118" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B125" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B140" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B147" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B156" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B158" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B159" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B167" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B170" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B171" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B177" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B178" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B179" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B180" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C180" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B182" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B183" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B184" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B187" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B188" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B189" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B190" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C191" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B192" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C193" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B194" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B195" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B196" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B197" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B198" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B199" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B200" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B201" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B203" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B204" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B205" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B206" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B208" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B209" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B210" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B211" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B212" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B213" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B214" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B215" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B216" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C217" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B218" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B219" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B221" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B222" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B223" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B224" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B225" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B226" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B227" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B228" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B229" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B230" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B231" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B232" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B233" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B234" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B235" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C235" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B238" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B239" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B240" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C240" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B241" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B242" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B243" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B244" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B245" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="B246" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C246" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B247" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B248" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B249" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B250" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B251" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B252" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B253" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B254" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B255" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B256" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B257" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B258" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B259" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B260" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B261" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B262" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B263" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C266" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B268" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B269" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B270" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C271" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B273" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B275" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B276" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B277" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B278" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B279" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B280" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C280" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="B281" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B282" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B283" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B284" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B285" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B286" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B287" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B288" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="B289" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B290" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B291" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="B292" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B293" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B294" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B295" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B296" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C296" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B297" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B298" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B299" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B300" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B301" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B302" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D302" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B303" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B304" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B305" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B306" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B307" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B308" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B309" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B310" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="B311" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B312" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B313" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B314" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B315" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B316" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B317" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B318" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B319" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="B320" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B321" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B322" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B323" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="B324" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B325" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B326" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B327" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="B328" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C328" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B329" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="B330" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="B331" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D331" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="B332" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B333" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B334" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B335" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B336" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D336" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B337" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B338" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B339" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B340" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B341" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="B342" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B343" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B344" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B345" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B346" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B347" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B348" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C348" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B349" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B350" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="B351" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B352" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C352" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B353" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B354" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B355" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B356" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B357" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B358" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B359" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B360" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B361" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B362" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C362" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B363" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B364" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C364" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B365" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B366" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B367" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B368" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B369" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B370" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B371" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B372" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B373" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B374" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B375" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B376" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B377" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B378" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B379" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B380" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C380" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B381" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B382" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B383" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B384" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B385" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B386" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B387" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B388" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B389" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="B390" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B391" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="B392" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B393" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="B394" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B395" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B396" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C396" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B397" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B398" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B399" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B400" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B401" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B402" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B403" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B404" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B405" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B406" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B407" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="B408" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C408" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B409" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="B410" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B411" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B412" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B413" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C413" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B414" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B415" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="B416" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B417" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="B418" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C418" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="B419" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B420" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B421" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B422" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B423" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="B424" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B425" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C425" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="B426" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B427" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="B428" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B429" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="B430" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B431" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C431" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="B432" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B433" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="B434" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="B435" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="B436" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="B437" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B438" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="B439" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="B440" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B441" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B442" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B443" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="B444" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C444" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="B445" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="B446" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B447" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="B448" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="B449" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="B450" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="B451" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B452" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C452" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B453" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B454" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B455" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="B456" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="B457" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B458" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B459" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B460" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B461" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B462" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="B463" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C463" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B464" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B465" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B466" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B467" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B468" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B469" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="B470" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="B471" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B472" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B473" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B474" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B475" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B476" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B477" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B478" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B479" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="B480" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D480" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B481" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="B482" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="B483" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C483" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="B484" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="B485" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B486" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="B487" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="B488" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="B489" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="B490" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B491" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="B492" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C492" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="B493" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B494" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B495" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B496" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B497" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B498" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B499" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="B500" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C500" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B501" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B502" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B503" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B504" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B505" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B506" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="B507" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="B508" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B509" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B510" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B511" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B512" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B513" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B514" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="B515" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B516" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="B517" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D517" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B518" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D518" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="B519" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="B520" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="B521" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="B522" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="B523" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="B524" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="B525" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="B526" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B527" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="B528" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="B529" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="B530" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="B531" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="B532" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="B533" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="B534" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="B535" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="B536" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C536" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="B537" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B538" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="B539" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="B540" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B541" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="B542" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="B543" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B544" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D544" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B545" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D545" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B546" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B547" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="B548" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="B549" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="B550" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="B551" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="B552" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="B553" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="B554" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B555" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="B556" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="B557" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B558" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="B559" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="B560" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="B561" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="B562" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="B563" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C563" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="B564" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="B565" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="B566" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="B567" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="B568" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="B569" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
